--- a/PhoenixCI/Excel_Template/30202.xlsx
+++ b/PhoenixCI/Excel_Template/30202.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9EEE1FD-6938-466C-A9AC-4F38695952E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D9943E4-BBBA-40A4-9FAB-A6214F759A70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="18180" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="附件2" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1242,11 +1241,11 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1261,7 +1260,7 @@
     <xf numFmtId="176" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1273,212 +1272,224 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,17 +1507,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1514,10 +1528,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,7 +1588,13 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2392,25 +2412,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="33" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18" s="34" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -2441,65 +2461,65 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="35" customFormat="1" ht="66" customHeight="1">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116" t="s">
+      <c r="C3" s="122"/>
+      <c r="D3" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117" t="s">
+      <c r="E3" s="123"/>
+      <c r="F3" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="G3" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="99"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="30"/>
-      <c r="J3" s="119" t="s">
+      <c r="J3" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="120"/>
+      <c r="K3" s="127"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="122" t="s">
+      <c r="M3" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="124" t="s">
+      <c r="N3" s="130"/>
+      <c r="O3" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="99" t="s">
+      <c r="P3" s="132"/>
+      <c r="Q3" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="100"/>
+      <c r="R3" s="105"/>
     </row>
     <row r="4" spans="1:18" s="36" customFormat="1" ht="45.4" customHeight="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="A4" s="120"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
       <c r="I4" s="31"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="102"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="107"/>
     </row>
     <row r="5" spans="1:18" s="36" customFormat="1">
-      <c r="A5" s="114"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
@@ -2512,7 +2532,7 @@
       <c r="E5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="118"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="8" t="s">
         <v>54</v>
       </c>
@@ -2531,8 +2551,8 @@
       <c r="L5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="110"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="115"/>
       <c r="O5" s="37" t="s">
         <v>31</v>
       </c>
@@ -2561,8 +2581,8 @@
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
       <c r="L6" s="41"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="83"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
       <c r="O6" s="42"/>
       <c r="P6" s="42"/>
       <c r="Q6" s="15"/>
@@ -2583,8 +2603,8 @@
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
       <c r="L7" s="41"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="83"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="87"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="17"/>
@@ -2605,8 +2625,8 @@
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
       <c r="L8" s="41"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="83"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="87"/>
       <c r="O8" s="42"/>
       <c r="P8" s="42"/>
       <c r="Q8" s="17"/>
@@ -2627,8 +2647,8 @@
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
       <c r="L9" s="41"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="83"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="87"/>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
       <c r="Q9" s="17"/>
@@ -2649,8 +2669,8 @@
       <c r="J10" s="46"/>
       <c r="K10" s="46"/>
       <c r="L10" s="41"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="83"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="87"/>
       <c r="O10" s="42"/>
       <c r="P10" s="42"/>
       <c r="Q10" s="17"/>
@@ -2671,8 +2691,8 @@
       <c r="J11" s="46"/>
       <c r="K11" s="46"/>
       <c r="L11" s="41"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="83"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="87"/>
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
       <c r="Q11" s="17"/>
@@ -2693,8 +2713,8 @@
       <c r="J12" s="46"/>
       <c r="K12" s="46"/>
       <c r="L12" s="41"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="83"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="87"/>
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="17"/>
@@ -2715,15 +2735,15 @@
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="83"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="87"/>
       <c r="O13" s="42"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="18"/>
     </row>
-    <row r="14" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="74" t="s">
+    <row r="14" spans="1:18" s="71" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A14" s="77" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="67"/>
@@ -2733,19 +2753,19 @@
       <c r="F14" s="68"/>
       <c r="G14" s="67"/>
       <c r="H14" s="67"/>
-      <c r="I14" s="27"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="46"/>
       <c r="K14" s="46"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="83"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="87"/>
       <c r="O14" s="42"/>
       <c r="P14" s="42"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="18"/>
     </row>
-    <row r="15" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="74" t="s">
+    <row r="15" spans="1:18" s="71" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="79" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="67"/>
@@ -2755,19 +2775,19 @@
       <c r="F15" s="68"/>
       <c r="G15" s="67"/>
       <c r="H15" s="67"/>
-      <c r="I15" s="27"/>
+      <c r="I15" s="69"/>
       <c r="J15" s="46"/>
       <c r="K15" s="46"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="83"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="87"/>
       <c r="O15" s="42"/>
       <c r="P15" s="42"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="18"/>
     </row>
-    <row r="16" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="74" t="s">
+    <row r="16" spans="1:18" s="71" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="79" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="67"/>
@@ -2777,19 +2797,19 @@
       <c r="F16" s="68"/>
       <c r="G16" s="67"/>
       <c r="H16" s="67"/>
-      <c r="I16" s="27"/>
+      <c r="I16" s="69"/>
       <c r="J16" s="46"/>
       <c r="K16" s="46"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="83"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="87"/>
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="18"/>
     </row>
-    <row r="17" spans="1:18" s="13" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A17" s="74" t="s">
+    <row r="17" spans="1:18" s="71" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+      <c r="A17" s="79" t="s">
         <v>72</v>
       </c>
       <c r="B17" s="67"/>
@@ -2799,19 +2819,19 @@
       <c r="F17" s="68"/>
       <c r="G17" s="67"/>
       <c r="H17" s="67"/>
-      <c r="I17" s="27"/>
+      <c r="I17" s="69"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="81"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="85"/>
       <c r="O17" s="42"/>
       <c r="P17" s="42"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="18"/>
     </row>
-    <row r="18" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="74" t="s">
+    <row r="18" spans="1:18" s="71" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A18" s="79" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="67"/>
@@ -2821,12 +2841,12 @@
       <c r="F18" s="68"/>
       <c r="G18" s="67"/>
       <c r="H18" s="67"/>
-      <c r="I18" s="27"/>
+      <c r="I18" s="69"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="83"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="87"/>
       <c r="O18" s="42"/>
       <c r="P18" s="42"/>
       <c r="Q18" s="17"/>
@@ -2847,8 +2867,8 @@
       <c r="J19" s="46"/>
       <c r="K19" s="46"/>
       <c r="L19" s="41"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="83"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="87"/>
       <c r="O19" s="42"/>
       <c r="P19" s="42"/>
       <c r="Q19" s="17"/>
@@ -2869,8 +2889,8 @@
       <c r="J20" s="51"/>
       <c r="K20" s="51"/>
       <c r="L20" s="52"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="83"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="87"/>
       <c r="O20" s="42"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="19"/>
@@ -2891,8 +2911,8 @@
       <c r="J21" s="51"/>
       <c r="K21" s="51"/>
       <c r="L21" s="52"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="83"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="87"/>
       <c r="O21" s="42"/>
       <c r="P21" s="42"/>
       <c r="Q21" s="19"/>
@@ -2913,96 +2933,96 @@
       <c r="J22" s="51"/>
       <c r="K22" s="51"/>
       <c r="L22" s="52"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="83"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="87"/>
       <c r="O22" s="42"/>
       <c r="P22" s="42"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
     </row>
-    <row r="23" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="75" t="s">
+    <row r="23" spans="1:18" s="75" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A23" s="78" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
-      <c r="F23" s="70"/>
+      <c r="F23" s="72"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="71"/>
+      <c r="I23" s="73"/>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="83"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="87"/>
       <c r="O23" s="42"/>
       <c r="P23" s="42"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="22"/>
     </row>
-    <row r="24" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="75" t="s">
+    <row r="24" spans="1:18" s="75" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A24" s="78" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="51"/>
       <c r="E24" s="51"/>
-      <c r="F24" s="76"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="71"/>
+      <c r="I24" s="73"/>
       <c r="J24" s="51"/>
       <c r="K24" s="51"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="83"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="87"/>
       <c r="O24" s="42"/>
       <c r="P24" s="42"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="22"/>
     </row>
-    <row r="25" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="78" t="s">
+    <row r="25" spans="1:18" s="75" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A25" s="82" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="51"/>
       <c r="E25" s="51"/>
-      <c r="F25" s="76"/>
+      <c r="F25" s="80"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="71"/>
+      <c r="I25" s="73"/>
       <c r="J25" s="51"/>
       <c r="K25" s="51"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="22"/>
     </row>
-    <row r="26" spans="1:18" s="13" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A26" s="79" t="s">
+    <row r="26" spans="1:18" s="75" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A26" s="83" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
-      <c r="F26" s="73"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="53"/>
       <c r="K26" s="53"/>
       <c r="L26" s="23"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="98"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="103"/>
       <c r="O26" s="54"/>
       <c r="P26" s="54"/>
       <c r="Q26" s="23"/>
@@ -3023,8 +3043,8 @@
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="41"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="94"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="99"/>
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
       <c r="Q27" s="27"/>
@@ -3045,8 +3065,8 @@
       <c r="J28" s="46"/>
       <c r="K28" s="46"/>
       <c r="L28" s="41"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="83"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="87"/>
       <c r="O28" s="42"/>
       <c r="P28" s="42"/>
       <c r="Q28" s="17"/>
@@ -3067,8 +3087,8 @@
       <c r="J29" s="46"/>
       <c r="K29" s="46"/>
       <c r="L29" s="41"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="83"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="87"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="17"/>
@@ -3089,8 +3109,8 @@
       <c r="J30" s="46"/>
       <c r="K30" s="46"/>
       <c r="L30" s="41"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="83"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="87"/>
       <c r="O30" s="42"/>
       <c r="P30" s="42"/>
       <c r="Q30" s="17"/>
@@ -3111,8 +3131,8 @@
       <c r="J31" s="46"/>
       <c r="K31" s="46"/>
       <c r="L31" s="41"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="83"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="87"/>
       <c r="O31" s="42"/>
       <c r="P31" s="42"/>
       <c r="Q31" s="17"/>
@@ -3133,8 +3153,8 @@
       <c r="J32" s="51"/>
       <c r="K32" s="51"/>
       <c r="L32" s="52"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="83"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="87"/>
       <c r="O32" s="42"/>
       <c r="P32" s="42"/>
       <c r="Q32" s="17"/>
@@ -3155,8 +3175,8 @@
       <c r="J33" s="51"/>
       <c r="K33" s="51"/>
       <c r="L33" s="52"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="83"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="87"/>
       <c r="O33" s="42"/>
       <c r="P33" s="42"/>
       <c r="Q33" s="17"/>
@@ -3177,27 +3197,27 @@
       <c r="J34" s="59"/>
       <c r="K34" s="59"/>
       <c r="L34" s="60"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="96"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="101"/>
       <c r="O34" s="61"/>
       <c r="P34" s="61"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="26"/>
     </row>
     <row r="35" spans="1:18" s="62" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -3206,40 +3226,40 @@
       <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="97"/>
     </row>
     <row r="37" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
       <c r="L37" s="11"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
@@ -3248,19 +3268,19 @@
       <c r="Q37" s="12"/>
     </row>
     <row r="38" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
       <c r="L38" s="11"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
@@ -3269,19 +3289,19 @@
       <c r="Q38" s="12"/>
     </row>
     <row r="39" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
       <c r="L39" s="11"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
@@ -3290,19 +3310,19 @@
       <c r="Q39" s="12"/>
     </row>
     <row r="40" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
       <c r="L40" s="11"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
@@ -3311,19 +3331,19 @@
       <c r="Q40" s="12"/>
     </row>
     <row r="41" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
       <c r="L41" s="11"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
@@ -3333,19 +3353,19 @@
     </row>
     <row r="42" spans="1:18" ht="12" customHeight="1"/>
     <row r="43" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="88" t="s">
+      <c r="A43" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
@@ -3354,19 +3374,19 @@
       <c r="Q43" s="12"/>
     </row>
     <row r="44" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
       <c r="L44" s="11"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
@@ -3375,19 +3395,19 @@
       <c r="Q44" s="12"/>
     </row>
     <row r="45" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
       <c r="L45" s="11"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
@@ -3396,19 +3416,19 @@
       <c r="Q45" s="12"/>
     </row>
     <row r="46" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
       <c r="L46" s="11"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
@@ -3417,19 +3437,19 @@
       <c r="Q46" s="12"/>
     </row>
     <row r="47" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
       <c r="L47" s="11"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
@@ -3438,19 +3458,19 @@
       <c r="Q47" s="12"/>
     </row>
     <row r="48" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
       <c r="L48" s="11"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
@@ -3460,19 +3480,19 @@
     </row>
     <row r="49" spans="1:17" ht="12" customHeight="1"/>
     <row r="50" spans="1:17" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="86" t="s">
+      <c r="A50" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="91"/>
       <c r="L50" s="13"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
@@ -3481,35 +3501,35 @@
       <c r="Q50" s="12"/>
     </row>
     <row r="51" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="86" t="s">
+      <c r="A51" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
       <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="86" t="s">
+      <c r="A52" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="87"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="57">

--- a/PhoenixCI/Excel_Template/30202.xlsx
+++ b/PhoenixCI/Excel_Template/30202.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D9943E4-BBBA-40A4-9FAB-A6214F759A70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9EEE1FD-6938-466C-A9AC-4F38695952E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="18180" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="附件2" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1241,11 +1242,11 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1260,7 +1261,7 @@
     <xf numFmtId="176" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,17 +1273,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1303,16 +1304,16 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1321,13 +1322,13 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1339,12 +1340,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,7 +1406,7 @@
     <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1429,7 +1430,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1447,80 +1448,65 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1528,10 +1514,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,13 +1574,7 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2412,25 +2392,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="33" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18" s="34" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -2461,65 +2441,65 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="35" customFormat="1" ht="66" customHeight="1">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123" t="s">
+      <c r="C3" s="115"/>
+      <c r="D3" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124" t="s">
+      <c r="E3" s="116"/>
+      <c r="F3" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="104"/>
+      <c r="H3" s="99"/>
       <c r="I3" s="30"/>
-      <c r="J3" s="126" t="s">
+      <c r="J3" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="127"/>
+      <c r="K3" s="120"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="129" t="s">
+      <c r="M3" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131" t="s">
+      <c r="N3" s="123"/>
+      <c r="O3" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="104" t="s">
+      <c r="P3" s="125"/>
+      <c r="Q3" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="105"/>
+      <c r="R3" s="100"/>
     </row>
     <row r="4" spans="1:18" s="36" customFormat="1" ht="45.4" customHeight="1">
-      <c r="A4" s="120"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="31"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="102"/>
     </row>
     <row r="5" spans="1:18" s="36" customFormat="1">
-      <c r="A5" s="121"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
@@ -2532,7 +2512,7 @@
       <c r="E5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="125"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="8" t="s">
         <v>54</v>
       </c>
@@ -2551,8 +2531,8 @@
       <c r="L5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="115"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="110"/>
       <c r="O5" s="37" t="s">
         <v>31</v>
       </c>
@@ -2581,8 +2561,8 @@
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
       <c r="L6" s="41"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="83"/>
       <c r="O6" s="42"/>
       <c r="P6" s="42"/>
       <c r="Q6" s="15"/>
@@ -2603,8 +2583,8 @@
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
       <c r="L7" s="41"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="87"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="83"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="17"/>
@@ -2625,8 +2605,8 @@
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
       <c r="L8" s="41"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="87"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
       <c r="O8" s="42"/>
       <c r="P8" s="42"/>
       <c r="Q8" s="17"/>
@@ -2647,8 +2627,8 @@
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
       <c r="L9" s="41"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="87"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
       <c r="Q9" s="17"/>
@@ -2669,8 +2649,8 @@
       <c r="J10" s="46"/>
       <c r="K10" s="46"/>
       <c r="L10" s="41"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="87"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
       <c r="O10" s="42"/>
       <c r="P10" s="42"/>
       <c r="Q10" s="17"/>
@@ -2691,8 +2671,8 @@
       <c r="J11" s="46"/>
       <c r="K11" s="46"/>
       <c r="L11" s="41"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="87"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="83"/>
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
       <c r="Q11" s="17"/>
@@ -2713,8 +2693,8 @@
       <c r="J12" s="46"/>
       <c r="K12" s="46"/>
       <c r="L12" s="41"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="87"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="83"/>
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="17"/>
@@ -2735,15 +2715,15 @@
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="87"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="83"/>
       <c r="O13" s="42"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="18"/>
     </row>
-    <row r="14" spans="1:18" s="71" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="77" t="s">
+    <row r="14" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A14" s="74" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="67"/>
@@ -2753,19 +2733,19 @@
       <c r="F14" s="68"/>
       <c r="G14" s="67"/>
       <c r="H14" s="67"/>
-      <c r="I14" s="69"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="46"/>
       <c r="K14" s="46"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="87"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="83"/>
       <c r="O14" s="42"/>
       <c r="P14" s="42"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="18"/>
     </row>
-    <row r="15" spans="1:18" s="71" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="79" t="s">
+    <row r="15" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="74" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="67"/>
@@ -2775,19 +2755,19 @@
       <c r="F15" s="68"/>
       <c r="G15" s="67"/>
       <c r="H15" s="67"/>
-      <c r="I15" s="69"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="46"/>
       <c r="K15" s="46"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="87"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="83"/>
       <c r="O15" s="42"/>
       <c r="P15" s="42"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="18"/>
     </row>
-    <row r="16" spans="1:18" s="71" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="79" t="s">
+    <row r="16" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="74" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="67"/>
@@ -2797,19 +2777,19 @@
       <c r="F16" s="68"/>
       <c r="G16" s="67"/>
       <c r="H16" s="67"/>
-      <c r="I16" s="69"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="46"/>
       <c r="K16" s="46"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="87"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="83"/>
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="18"/>
     </row>
-    <row r="17" spans="1:18" s="71" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A17" s="79" t="s">
+    <row r="17" spans="1:18" s="13" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+      <c r="A17" s="74" t="s">
         <v>72</v>
       </c>
       <c r="B17" s="67"/>
@@ -2819,19 +2799,19 @@
       <c r="F17" s="68"/>
       <c r="G17" s="67"/>
       <c r="H17" s="67"/>
-      <c r="I17" s="69"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="85"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="81"/>
       <c r="O17" s="42"/>
       <c r="P17" s="42"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="18"/>
     </row>
-    <row r="18" spans="1:18" s="71" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="79" t="s">
+    <row r="18" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A18" s="74" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="67"/>
@@ -2841,12 +2821,12 @@
       <c r="F18" s="68"/>
       <c r="G18" s="67"/>
       <c r="H18" s="67"/>
-      <c r="I18" s="69"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="87"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="83"/>
       <c r="O18" s="42"/>
       <c r="P18" s="42"/>
       <c r="Q18" s="17"/>
@@ -2867,8 +2847,8 @@
       <c r="J19" s="46"/>
       <c r="K19" s="46"/>
       <c r="L19" s="41"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="87"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="83"/>
       <c r="O19" s="42"/>
       <c r="P19" s="42"/>
       <c r="Q19" s="17"/>
@@ -2889,8 +2869,8 @@
       <c r="J20" s="51"/>
       <c r="K20" s="51"/>
       <c r="L20" s="52"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="87"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="83"/>
       <c r="O20" s="42"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="19"/>
@@ -2911,8 +2891,8 @@
       <c r="J21" s="51"/>
       <c r="K21" s="51"/>
       <c r="L21" s="52"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="87"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="83"/>
       <c r="O21" s="42"/>
       <c r="P21" s="42"/>
       <c r="Q21" s="19"/>
@@ -2933,96 +2913,96 @@
       <c r="J22" s="51"/>
       <c r="K22" s="51"/>
       <c r="L22" s="52"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="87"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="83"/>
       <c r="O22" s="42"/>
       <c r="P22" s="42"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
     </row>
-    <row r="23" spans="1:18" s="75" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="78" t="s">
+    <row r="23" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A23" s="75" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
-      <c r="F23" s="72"/>
+      <c r="F23" s="70"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="73"/>
+      <c r="I23" s="71"/>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="87"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="83"/>
       <c r="O23" s="42"/>
       <c r="P23" s="42"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="22"/>
     </row>
-    <row r="24" spans="1:18" s="75" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="78" t="s">
+    <row r="24" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A24" s="75" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="51"/>
       <c r="E24" s="51"/>
-      <c r="F24" s="80"/>
+      <c r="F24" s="76"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="73"/>
+      <c r="I24" s="71"/>
       <c r="J24" s="51"/>
       <c r="K24" s="51"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="87"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="83"/>
       <c r="O24" s="42"/>
       <c r="P24" s="42"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="22"/>
     </row>
-    <row r="25" spans="1:18" s="75" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="82" t="s">
+    <row r="25" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A25" s="78" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="51"/>
       <c r="E25" s="51"/>
-      <c r="F25" s="80"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="73"/>
+      <c r="I25" s="71"/>
       <c r="J25" s="51"/>
       <c r="K25" s="51"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="22"/>
     </row>
-    <row r="26" spans="1:18" s="75" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A26" s="83" t="s">
+    <row r="26" spans="1:18" s="13" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A26" s="79" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
-      <c r="F26" s="76"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="53"/>
       <c r="K26" s="53"/>
       <c r="L26" s="23"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="103"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="98"/>
       <c r="O26" s="54"/>
       <c r="P26" s="54"/>
       <c r="Q26" s="23"/>
@@ -3043,8 +3023,8 @@
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="41"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="99"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="94"/>
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
       <c r="Q27" s="27"/>
@@ -3065,8 +3045,8 @@
       <c r="J28" s="46"/>
       <c r="K28" s="46"/>
       <c r="L28" s="41"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="87"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="83"/>
       <c r="O28" s="42"/>
       <c r="P28" s="42"/>
       <c r="Q28" s="17"/>
@@ -3087,8 +3067,8 @@
       <c r="J29" s="46"/>
       <c r="K29" s="46"/>
       <c r="L29" s="41"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="87"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="83"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="17"/>
@@ -3109,8 +3089,8 @@
       <c r="J30" s="46"/>
       <c r="K30" s="46"/>
       <c r="L30" s="41"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="87"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="83"/>
       <c r="O30" s="42"/>
       <c r="P30" s="42"/>
       <c r="Q30" s="17"/>
@@ -3131,8 +3111,8 @@
       <c r="J31" s="46"/>
       <c r="K31" s="46"/>
       <c r="L31" s="41"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="87"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="83"/>
       <c r="O31" s="42"/>
       <c r="P31" s="42"/>
       <c r="Q31" s="17"/>
@@ -3153,8 +3133,8 @@
       <c r="J32" s="51"/>
       <c r="K32" s="51"/>
       <c r="L32" s="52"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="87"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="83"/>
       <c r="O32" s="42"/>
       <c r="P32" s="42"/>
       <c r="Q32" s="17"/>
@@ -3175,8 +3155,8 @@
       <c r="J33" s="51"/>
       <c r="K33" s="51"/>
       <c r="L33" s="52"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="87"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="83"/>
       <c r="O33" s="42"/>
       <c r="P33" s="42"/>
       <c r="Q33" s="17"/>
@@ -3197,27 +3177,27 @@
       <c r="J34" s="59"/>
       <c r="K34" s="59"/>
       <c r="L34" s="60"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="101"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="96"/>
       <c r="O34" s="61"/>
       <c r="P34" s="61"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="26"/>
     </row>
     <row r="35" spans="1:18" s="62" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -3226,40 +3206,40 @@
       <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
     </row>
     <row r="37" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
       <c r="L37" s="11"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
@@ -3268,19 +3248,19 @@
       <c r="Q37" s="12"/>
     </row>
     <row r="38" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="88" t="s">
+      <c r="A38" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
       <c r="L38" s="11"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
@@ -3289,19 +3269,19 @@
       <c r="Q38" s="12"/>
     </row>
     <row r="39" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
       <c r="L39" s="11"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
@@ -3310,19 +3290,19 @@
       <c r="Q39" s="12"/>
     </row>
     <row r="40" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
       <c r="L40" s="11"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
@@ -3331,19 +3311,19 @@
       <c r="Q40" s="12"/>
     </row>
     <row r="41" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
       <c r="L41" s="11"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
@@ -3353,19 +3333,19 @@
     </row>
     <row r="42" spans="1:18" ht="12" customHeight="1"/>
     <row r="43" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
@@ -3374,19 +3354,19 @@
       <c r="Q43" s="12"/>
     </row>
     <row r="44" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="88" t="s">
+      <c r="A44" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
       <c r="L44" s="11"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
@@ -3395,19 +3375,19 @@
       <c r="Q44" s="12"/>
     </row>
     <row r="45" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="88" t="s">
+      <c r="A45" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
       <c r="L45" s="11"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
@@ -3416,19 +3396,19 @@
       <c r="Q45" s="12"/>
     </row>
     <row r="46" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="88" t="s">
+      <c r="A46" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
       <c r="L46" s="11"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
@@ -3437,19 +3417,19 @@
       <c r="Q46" s="12"/>
     </row>
     <row r="47" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
       <c r="L47" s="11"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
@@ -3458,19 +3438,19 @@
       <c r="Q47" s="12"/>
     </row>
     <row r="48" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="88" t="s">
+      <c r="A48" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
       <c r="L48" s="11"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
@@ -3480,19 +3460,19 @@
     </row>
     <row r="49" spans="1:17" ht="12" customHeight="1"/>
     <row r="50" spans="1:17" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="91"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
       <c r="L50" s="13"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
@@ -3501,35 +3481,35 @@
       <c r="Q50" s="12"/>
     </row>
     <row r="51" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="90" t="s">
+      <c r="A51" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="91"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="91"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
       <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="116" t="s">
+      <c r="A52" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="117"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="117"/>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="117"/>
-      <c r="I52" s="117"/>
-      <c r="J52" s="117"/>
-      <c r="K52" s="117"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="57">

--- a/PhoenixCI/Excel_Template/30202.xlsx
+++ b/PhoenixCI/Excel_Template/30202.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\開發\PhoenixCI\20190802\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9EEE1FD-6938-466C-A9AC-4F38695952E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="18180" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="附件2" sheetId="1" r:id="rId1"/>
@@ -20,27 +19,19 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">附件2!$A$1:$R$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">附件2!$A$1:$R$53</definedName>
     <definedName name="上季部位數">#REF!</definedName>
     <definedName name="前次結果">[2]前次部位限制!$B$1:$E$65536</definedName>
     <definedName name="流動在外">#REF!</definedName>
     <definedName name="部位限制數分級">#REF!</definedName>
     <definedName name="資料">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725" fullCalcOnLoad="1" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>(一)</t>
   </si>
@@ -553,6 +544,10 @@
     <t>布蘭特原油期貨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>富櫃200期貨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -562,7 +557,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -731,6 +726,13 @@
       <charset val="136"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -742,13 +744,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -1098,35 +1093,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1139,22 +1106,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1165,8 +1117,23 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1176,19 +1143,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1198,12 +1171,45 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1211,17 +1217,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1242,11 +1237,11 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1261,7 +1256,7 @@
     <xf numFmtId="176" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1273,354 +1268,381 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2119,23 +2141,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2171,23 +2176,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2367,13 +2355,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34:N34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.875" style="43" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="43" bestFit="1" customWidth="1"/>
@@ -2391,29 +2379,29 @@
     <col min="19" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="33" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:18" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
       <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:18" s="34" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="2" spans="1:18" s="34" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="34" t="s">
         <v>0</v>
@@ -2440,66 +2428,66 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="35" customFormat="1" ht="66" customHeight="1">
-      <c r="A3" s="112" t="s">
+    <row r="3" spans="1:18" s="35" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117" t="s">
+      <c r="E3" s="95"/>
+      <c r="F3" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="G3" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="99"/>
+      <c r="H3" s="98"/>
       <c r="I3" s="30"/>
-      <c r="J3" s="119" t="s">
+      <c r="J3" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="120"/>
+      <c r="K3" s="101"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="122" t="s">
+      <c r="M3" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="124" t="s">
+      <c r="N3" s="104"/>
+      <c r="O3" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="99" t="s">
+      <c r="P3" s="106"/>
+      <c r="Q3" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="100"/>
-    </row>
-    <row r="4" spans="1:18" s="36" customFormat="1" ht="45.4" customHeight="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="R3" s="108"/>
+    </row>
+    <row r="4" spans="1:18" s="36" customFormat="1" ht="45.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
       <c r="I4" s="31"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="102"/>
-    </row>
-    <row r="5" spans="1:18" s="36" customFormat="1">
-      <c r="A5" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="109"/>
+    </row>
+    <row r="5" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="93"/>
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
@@ -2512,7 +2500,7 @@
       <c r="E5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="118"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="8" t="s">
         <v>54</v>
       </c>
@@ -2531,8 +2519,8 @@
       <c r="L5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="110"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="117"/>
       <c r="O5" s="37" t="s">
         <v>31</v>
       </c>
@@ -2546,7 +2534,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="24.95" customHeight="1">
+    <row r="6" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>58</v>
       </c>
@@ -2561,14 +2549,14 @@
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
       <c r="L6" s="41"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="83"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="119"/>
       <c r="O6" s="42"/>
       <c r="P6" s="42"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="16"/>
     </row>
-    <row r="7" spans="1:18" ht="24.95" customHeight="1">
+    <row r="7" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>3</v>
       </c>
@@ -2583,14 +2571,14 @@
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
       <c r="L7" s="41"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="83"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="119"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="18"/>
     </row>
-    <row r="8" spans="1:18" ht="24.95" customHeight="1">
+    <row r="8" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>4</v>
       </c>
@@ -2605,14 +2593,14 @@
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
       <c r="L8" s="41"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="83"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="119"/>
       <c r="O8" s="42"/>
       <c r="P8" s="42"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
     </row>
-    <row r="9" spans="1:18" ht="24.95" customHeight="1">
+    <row r="9" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>59</v>
       </c>
@@ -2627,14 +2615,14 @@
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
       <c r="L9" s="41"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="83"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="119"/>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="18"/>
     </row>
-    <row r="10" spans="1:18" ht="24.95" customHeight="1">
+    <row r="10" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>5</v>
       </c>
@@ -2649,14 +2637,14 @@
       <c r="J10" s="46"/>
       <c r="K10" s="46"/>
       <c r="L10" s="41"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="83"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="119"/>
       <c r="O10" s="42"/>
       <c r="P10" s="42"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
     </row>
-    <row r="11" spans="1:18" ht="24.95" customHeight="1">
+    <row r="11" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>6</v>
       </c>
@@ -2671,16 +2659,16 @@
       <c r="J11" s="46"/>
       <c r="K11" s="46"/>
       <c r="L11" s="41"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="83"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="119"/>
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="18"/>
     </row>
-    <row r="12" spans="1:18" ht="24.95" hidden="1" customHeight="1">
+    <row r="12" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -2693,16 +2681,16 @@
       <c r="J12" s="46"/>
       <c r="K12" s="46"/>
       <c r="L12" s="41"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="83"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="87"/>
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="18"/>
     </row>
-    <row r="13" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A13" s="63" t="s">
-        <v>33</v>
+    <row r="13" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
+        <v>61</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -2715,38 +2703,38 @@
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="83"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="119"/>
       <c r="O13" s="42"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="18"/>
     </row>
-    <row r="14" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="27"/>
+    <row r="14" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="46"/>
       <c r="K14" s="46"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="83"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="119"/>
       <c r="O14" s="42"/>
       <c r="P14" s="42"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="18"/>
     </row>
-    <row r="15" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="74" t="s">
-        <v>67</v>
+    <row r="15" spans="1:18" s="71" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77" t="s">
+        <v>66</v>
       </c>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -2755,20 +2743,20 @@
       <c r="F15" s="68"/>
       <c r="G15" s="67"/>
       <c r="H15" s="67"/>
-      <c r="I15" s="27"/>
+      <c r="I15" s="69"/>
       <c r="J15" s="46"/>
       <c r="K15" s="46"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="83"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="119"/>
       <c r="O15" s="42"/>
       <c r="P15" s="42"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="18"/>
     </row>
-    <row r="16" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="74" t="s">
-        <v>68</v>
+    <row r="16" spans="1:18" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="79" t="s">
+        <v>67</v>
       </c>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
@@ -2777,20 +2765,20 @@
       <c r="F16" s="68"/>
       <c r="G16" s="67"/>
       <c r="H16" s="67"/>
-      <c r="I16" s="27"/>
+      <c r="I16" s="69"/>
       <c r="J16" s="46"/>
       <c r="K16" s="46"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="83"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="119"/>
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="18"/>
     </row>
-    <row r="17" spans="1:18" s="13" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A17" s="74" t="s">
-        <v>72</v>
+    <row r="17" spans="1:18" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="79" t="s">
+        <v>68</v>
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -2799,20 +2787,20 @@
       <c r="F17" s="68"/>
       <c r="G17" s="67"/>
       <c r="H17" s="67"/>
-      <c r="I17" s="27"/>
+      <c r="I17" s="69"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="81"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="119"/>
       <c r="O17" s="42"/>
       <c r="P17" s="42"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="18"/>
     </row>
-    <row r="18" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="74" t="s">
-        <v>73</v>
+    <row r="18" spans="1:18" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
+        <v>72</v>
       </c>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -2821,64 +2809,64 @@
       <c r="F18" s="68"/>
       <c r="G18" s="67"/>
       <c r="H18" s="67"/>
-      <c r="I18" s="27"/>
+      <c r="I18" s="69"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="83"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="85"/>
       <c r="O18" s="42"/>
       <c r="P18" s="42"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="18"/>
     </row>
-    <row r="19" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A19" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="4"/>
+    <row r="19" spans="1:18" s="71" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="69"/>
       <c r="J19" s="46"/>
       <c r="K19" s="46"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="83"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="119"/>
       <c r="O19" s="42"/>
       <c r="P19" s="42"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="18"/>
     </row>
-    <row r="20" spans="1:18" ht="24.95" customHeight="1">
+    <row r="20" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="83"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="119"/>
       <c r="O20" s="42"/>
       <c r="P20" s="42"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
-    </row>
-    <row r="21" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A21" s="29" t="s">
-        <v>34</v>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>8</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
@@ -2891,16 +2879,16 @@
       <c r="J21" s="51"/>
       <c r="K21" s="51"/>
       <c r="L21" s="52"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="83"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="119"/>
       <c r="O21" s="42"/>
       <c r="P21" s="42"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="20"/>
     </row>
-    <row r="22" spans="1:18" ht="24.95" customHeight="1">
+    <row r="22" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
@@ -2913,148 +2901,148 @@
       <c r="J22" s="51"/>
       <c r="K22" s="51"/>
       <c r="L22" s="52"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="83"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="119"/>
       <c r="O22" s="42"/>
       <c r="P22" s="42"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
     </row>
-    <row r="23" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="71"/>
+    <row r="23" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="50"/>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="83"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="119"/>
       <c r="O23" s="42"/>
       <c r="P23" s="42"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="22"/>
-    </row>
-    <row r="24" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="75" t="s">
-        <v>69</v>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="20"/>
+    </row>
+    <row r="24" spans="1:18" s="75" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="78" t="s">
+        <v>65</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="51"/>
       <c r="E24" s="51"/>
-      <c r="F24" s="76"/>
+      <c r="F24" s="72"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="71"/>
+      <c r="I24" s="73"/>
       <c r="J24" s="51"/>
       <c r="K24" s="51"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="83"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="119"/>
       <c r="O24" s="42"/>
       <c r="P24" s="42"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="22"/>
     </row>
-    <row r="25" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1">
+    <row r="25" spans="1:18" s="75" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="51"/>
       <c r="E25" s="51"/>
-      <c r="F25" s="76"/>
+      <c r="F25" s="80"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="71"/>
+      <c r="I25" s="73"/>
       <c r="J25" s="51"/>
       <c r="K25" s="51"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="22"/>
     </row>
-    <row r="26" spans="1:18" s="13" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A26" s="79" t="s">
+    <row r="26" spans="1:18" s="75" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="22"/>
+    </row>
+    <row r="27" spans="1:18" s="75" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="24"/>
-    </row>
-    <row r="27" spans="1:18" ht="24.75" customHeight="1" thickTop="1">
-      <c r="A27" s="38" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="24"/>
+    </row>
+    <row r="28" spans="1:18" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="28"/>
-    </row>
-    <row r="28" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A28" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
       <c r="L28" s="41"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="83"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="123"/>
       <c r="O28" s="42"/>
       <c r="P28" s="42"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="18"/>
-    </row>
-    <row r="29" spans="1:18" ht="24.95" customHeight="1">
+      <c r="Q28" s="27"/>
+      <c r="R28" s="28"/>
+    </row>
+    <row r="29" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -3067,16 +3055,16 @@
       <c r="J29" s="46"/>
       <c r="K29" s="46"/>
       <c r="L29" s="41"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="83"/>
+      <c r="M29" s="118"/>
+      <c r="N29" s="119"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="18"/>
     </row>
-    <row r="30" spans="1:18" ht="24.95" customHeight="1">
+    <row r="30" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -3089,16 +3077,16 @@
       <c r="J30" s="46"/>
       <c r="K30" s="46"/>
       <c r="L30" s="41"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="83"/>
+      <c r="M30" s="118"/>
+      <c r="N30" s="119"/>
       <c r="O30" s="42"/>
       <c r="P30" s="42"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="18"/>
     </row>
-    <row r="31" spans="1:18" ht="24.95" customHeight="1">
+    <row r="31" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
@@ -3111,38 +3099,38 @@
       <c r="J31" s="46"/>
       <c r="K31" s="46"/>
       <c r="L31" s="41"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="83"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="119"/>
       <c r="O31" s="42"/>
       <c r="P31" s="42"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="18"/>
     </row>
-    <row r="32" spans="1:18" ht="24.95" customHeight="1">
+    <row r="32" spans="1:18" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="83"/>
+        <v>13</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="119"/>
       <c r="O32" s="42"/>
       <c r="P32" s="42"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="18"/>
     </row>
-    <row r="33" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A33" s="66" t="s">
-        <v>62</v>
+    <row r="33" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
@@ -3155,112 +3143,113 @@
       <c r="J33" s="51"/>
       <c r="K33" s="51"/>
       <c r="L33" s="52"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="83"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="119"/>
       <c r="O33" s="42"/>
       <c r="P33" s="42"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="18"/>
     </row>
-    <row r="34" spans="1:18" ht="24.95" customHeight="1" thickBot="1">
+    <row r="34" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="18"/>
+    </row>
+    <row r="35" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="26"/>
-    </row>
-    <row r="35" spans="1:18" s="62" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A35" s="89" t="s">
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="124"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="26"/>
+    </row>
+    <row r="36" spans="1:18" s="62" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-    </row>
-    <row r="36" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="91" t="s">
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+    </row>
+    <row r="37" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
-    </row>
-    <row r="37" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="84" t="s">
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="129"/>
+      <c r="K37" s="129"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
+      <c r="N37" s="129"/>
+      <c r="O37" s="129"/>
+      <c r="P37" s="129"/>
+      <c r="Q37" s="129"/>
+    </row>
+    <row r="38" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-    </row>
-    <row r="38" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
       <c r="L38" s="11"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
@@ -3268,20 +3257,20 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
     </row>
-    <row r="39" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
+    <row r="39" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="130" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="131"/>
       <c r="L39" s="11"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
@@ -3289,20 +3278,20 @@
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
     </row>
-    <row r="40" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
+    <row r="40" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
       <c r="L40" s="11"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
@@ -3310,20 +3299,20 @@
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
     </row>
-    <row r="41" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
+    <row r="41" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="130" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="131"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="131"/>
       <c r="L41" s="11"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
@@ -3331,42 +3320,42 @@
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
     </row>
-    <row r="42" spans="1:18" ht="12" customHeight="1"/>
-    <row r="43" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="88" t="s">
+    <row r="42" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="131"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+    </row>
+    <row r="43" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-    </row>
-    <row r="44" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="135"/>
+      <c r="G44" s="135"/>
+      <c r="H44" s="135"/>
+      <c r="I44" s="135"/>
+      <c r="J44" s="135"/>
+      <c r="K44" s="135"/>
       <c r="L44" s="11"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
@@ -3374,20 +3363,20 @@
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
     </row>
-    <row r="45" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
+    <row r="45" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="131"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
+      <c r="J45" s="131"/>
+      <c r="K45" s="131"/>
       <c r="L45" s="11"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
@@ -3395,20 +3384,20 @@
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
     </row>
-    <row r="46" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
+    <row r="46" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="131"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="131"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="131"/>
       <c r="L46" s="11"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
@@ -3416,20 +3405,20 @@
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
     </row>
-    <row r="47" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
+    <row r="47" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="131"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="131"/>
       <c r="L47" s="11"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
@@ -3437,20 +3426,20 @@
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
     </row>
-    <row r="48" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
+    <row r="48" spans="1:18" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="130" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="131"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="131"/>
       <c r="L48" s="11"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
@@ -3458,62 +3447,130 @@
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
     </row>
-    <row r="49" spans="1:17" ht="12" customHeight="1"/>
-    <row r="50" spans="1:17" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="86" t="s">
+    <row r="49" spans="1:17" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="131"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="131"/>
+      <c r="E49" s="131"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="131"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="131"/>
+      <c r="K49" s="131"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+    </row>
+    <row r="50" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:17" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-    </row>
-    <row r="51" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="86" t="s">
+      <c r="B51" s="133"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+    </row>
+    <row r="52" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="13"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="86" t="s">
+      <c r="B52" s="133"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="13"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="87"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A51:K51"/>
     <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A37:Q37"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A53:K53"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:C3"/>
@@ -3523,61 +3580,14 @@
     <mergeCell ref="J3:K4"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P4"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:Q36"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M18:N18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M6:N17 M19:N34 M18">
+  <conditionalFormatting sqref="M6:N18 M20:N35 M19">
     <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>"不適用"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:R34">
+  <conditionalFormatting sqref="Q6:R35">
     <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>"不變"</formula>
     </cfRule>
